--- a/Desenvolvimento Ajol.xlsx
+++ b/Desenvolvimento Ajol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB9D254-4E5C-4AD0-B560-9A26F250EB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70651BC2-5547-40A7-8E90-2E27B3C9B38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{776A3329-5419-4B5C-81A0-7DF2732FC879}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>A Fazer</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>CEP automatico</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +647,9 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Desenvolvimento Ajol.xlsx
+++ b/Desenvolvimento Ajol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70651BC2-5547-40A7-8E90-2E27B3C9B38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47C877-B5A3-414D-A596-AD41079578B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{776A3329-5419-4B5C-81A0-7DF2732FC879}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>A Fazer</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>CEP automatico</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -534,7 +531,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +617,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -642,13 +639,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Desenvolvimento Ajol.xlsx
+++ b/Desenvolvimento Ajol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47C877-B5A3-414D-A596-AD41079578B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385BF711-57D1-4B41-92B1-161A7E9BE274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{776A3329-5419-4B5C-81A0-7DF2732FC879}"/>
   </bookViews>
@@ -35,6 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>GABRIEL DEIRO DOS SANTOS</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{985147B9-7AD8-4F89-A17C-BD25ADEDF153}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Testar anexo de imagens no cadastro</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
@@ -126,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +165,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -527,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A061C2C-E535-42E9-A0B8-7369B43EBF63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A061C2C-E535-42E9-A0B8-7369B43EBF63}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,5 +679,6 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Desenvolvimento Ajol.xlsx
+++ b/Desenvolvimento Ajol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385BF711-57D1-4B41-92B1-161A7E9BE274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740D954-3287-42CC-B626-B5C202F06299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{776A3329-5419-4B5C-81A0-7DF2732FC879}"/>
   </bookViews>
@@ -562,14 +562,14 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="2.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -644,9 +644,6 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" t="s">
         <v>21</v>
       </c>
@@ -654,7 +651,10 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -664,13 +664,13 @@
       <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" t="s">
-        <v>12</v>
+      <c r="H5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>

--- a/Desenvolvimento Ajol.xlsx
+++ b/Desenvolvimento Ajol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740D954-3287-42CC-B626-B5C202F06299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A1302-FF23-4654-A590-D8A92735EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{776A3329-5419-4B5C-81A0-7DF2732FC879}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>A Fazer</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>CEP automatico</t>
+  </si>
+  <si>
+    <t>Link - Usuario</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,10 +648,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -659,10 +662,13 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -670,10 +676,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Desenvolvimento Ajol.xlsx
+++ b/Desenvolvimento Ajol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetoAjol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4A1302-FF23-4654-A590-D8A92735EECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6680302-7107-43B5-AD87-DC1A6ACC0E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{776A3329-5419-4B5C-81A0-7DF2732FC879}"/>
   </bookViews>
@@ -565,7 +565,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
